--- a/AGILENT/METRICS/QCMetrics_2020-02-25.xlsx
+++ b/AGILENT/METRICS/QCMetrics_2020-02-25.xlsx
@@ -350,7 +350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,338 +378,324 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43845</v>
+        <v>43857</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43846</v>
+        <v>43858</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43847</v>
+        <v>43859</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43851</v>
+        <v>43860</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43852</v>
+        <v>43861</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43853</v>
+        <v>43864</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43854</v>
+        <v>43865</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43855</v>
+        <v>43866</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43857</v>
+        <v>43867</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43858</v>
+        <v>43868</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43859</v>
+        <v>43869</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43860</v>
+        <v>43871</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43861</v>
+        <v>43872</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>43864</v>
+        <v>43873</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43865</v>
+        <v>43874</v>
       </c>
       <c r="B17" t="n">
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43867</v>
+        <v>43876</v>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43868</v>
+        <v>43879</v>
       </c>
       <c r="B20" t="n">
         <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43869</v>
+        <v>43880</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43871</v>
+        <v>43881</v>
       </c>
       <c r="B22" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43872</v>
+        <v>43882</v>
       </c>
       <c r="B23" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43873</v>
+        <v>43885</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43874</v>
+        <v>43886</v>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>43875</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v/>
-      </c>
-      <c r="D26" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
